--- a/Data/classe_bio_eco.xlsx
+++ b/Data/classe_bio_eco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilona.garcia\Documents\RstudioGIT\Etudebiophysico\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF9BA7A-89A2-47B4-BB5A-2D3A84094E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8654B8-D69D-444F-B64B-9A0DEAE33F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D66BE60E-0A85-4244-B2D6-1B1F46D48C3C}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t xml:space="preserve">Habitats fluviaux, rives de lacs ou étangs de plaine. Tolère les eaux saumâtres. </t>
   </si>
   <si>
-    <t>Oligochaete, Bivalvia, Ephemeroptera et Trichoptera</t>
-  </si>
-  <si>
     <t>Lentique/Stagnant</t>
   </si>
   <si>
@@ -454,6 +451,153 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">B1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Crustacea, Hirudinea                   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Bivalvia</t>
+    </r>
+  </si>
+  <si>
+    <t>Ordre inclus</t>
+  </si>
+  <si>
+    <t>Oligotrophe/mesotrophes</t>
+  </si>
+  <si>
+    <t>Oligotrophe /mesotrophe</t>
+  </si>
+  <si>
+    <t>beta/alpha mesosaprobe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Coleoptera                    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Odonata, Coleoptera, Heteroptera, Diptera et Trichoptera                    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Diptera et Trichoptera       </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Oligochaeta et autres ordres d'insectes                           Les sous-groupes sont différents en raison de "statut trophique", "altitude", "température", "saprobie"        </t>
+    </r>
+  </si>
+  <si>
+    <t>Rithron et plaine.</t>
+  </si>
+  <si>
+    <t>Macrophyte, détritus organiques  ou vase.</t>
+  </si>
+  <si>
+    <t>N'occupe pas le chenal principal actif des rivières.</t>
+  </si>
+  <si>
+    <t>Sensibles à l'acidité.</t>
+  </si>
+  <si>
+    <t>Oligochaeta, Bivalvia, Ephemeroptera et Trichoptera</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>C1</t>
     </r>
     <r>
@@ -463,7 +607,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : Turbellaria, Plecoptera et Trichoptera        </t>
+      <t xml:space="preserve"> : Turbellaria, Plecoptera et Trichoptera                                 </t>
     </r>
     <r>
       <rPr>
@@ -484,150 +628,6 @@
       </rPr>
       <t xml:space="preserve"> : Diptera et Trichoptera</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">B1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Crustacea, Hirudinea                   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Bivalvia</t>
-    </r>
-  </si>
-  <si>
-    <t>Ordre inclus</t>
-  </si>
-  <si>
-    <t>Oligotrophe/mesotrophes</t>
-  </si>
-  <si>
-    <t>Oligotrophe /mesotrophe</t>
-  </si>
-  <si>
-    <t>beta/alpha mesosaprobe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Coleoptera                    </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">G2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Odonata, Coleoptera, Heteroptera, Diptera et Trichoptera                    </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Diptera et Trichoptera       </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Oligochaeta et autres ordres d'insectes                           Les sous-groupes sont différents en raison de "statut trophique", "altitude", "température", "saprobie"        </t>
-    </r>
-  </si>
-  <si>
-    <t>Rithron et plaine.</t>
-  </si>
-  <si>
-    <t>Macrophyte, détritus organiques  ou vase.</t>
-  </si>
-  <si>
-    <t>N'occupe pas le chenal principal actif des rivières.</t>
-  </si>
-  <si>
-    <t>Sensibles à l'acidité.</t>
   </si>
 </sst>
 </file>
@@ -739,9 +739,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,6 +756,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5B21C3-BFFB-4F0B-A4DE-60C722F26B6B}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,16 +1101,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1120,29 +1120,29 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4"/>
@@ -1154,31 +1154,31 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="5"/>
@@ -1186,385 +1186,385 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="9"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
